--- a/airlines.xlsx
+++ b/airlines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hallstaro365-my.sharepoint.com/personal/tbryan_hallstar_com/Documents/Desktop/Main/Personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{47A07E5A-92A4-4A6C-AE32-45483843CB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA6F7CB-DD5D-4D68-9D10-0C7DAFCB352C}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{47A07E5A-92A4-4A6C-AE32-45483843CB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B2D0003-6A26-47FF-AAA2-F29CF092498B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E9283A6D-BCA1-48C9-A730-B3F3B5FCEE32}"/>
+    <workbookView xWindow="-24255" yWindow="3060" windowWidth="21600" windowHeight="12675" activeTab="1" xr2:uid="{E9283A6D-BCA1-48C9-A730-B3F3B5FCEE32}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -913,22 +913,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E50BB5-92A6-4193-8BC3-6E64A6C7BA1F}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A13" sqref="A13:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -944,8 +948,20 @@
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2013</v>
       </c>
@@ -961,8 +977,20 @@
       <c r="E2" s="4">
         <v>7.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.20910000000000001</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2014</v>
       </c>
@@ -978,8 +1006,20 @@
       <c r="E3" s="4">
         <v>1.18E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4">
+        <v>0.2828</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.216</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.5699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
@@ -995,8 +1035,20 @@
       <c r="E4" s="4">
         <v>8.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4">
+        <v>0.2059</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.18729999999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -1012,8 +1064,20 @@
       <c r="E5" s="4">
         <v>1.35E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.14990000000000001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
@@ -1029,8 +1093,20 @@
       <c r="E6" s="4">
         <v>4.7999999999999996E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
@@ -1046,8 +1122,20 @@
       <c r="E7" s="4">
         <v>4.1999999999999997E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2019</v>
       </c>
@@ -1063,8 +1151,20 @@
       <c r="E8" s="4">
         <v>1.11E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.1991</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
@@ -1080,8 +1180,20 @@
       <c r="E9" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6.7199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2021</v>
       </c>
@@ -1097,8 +1209,20 @@
       <c r="E10" s="4">
         <v>1.21E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>0.16289999999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2022</v>
       </c>
@@ -1114,200 +1238,25 @@
       <c r="E11" s="4">
         <v>1.4200000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <v>0.1741</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.87E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.1971</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.22739999999999999</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.20910000000000001</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.2828</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5.6300000000000003E-2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.216</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1.5699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.2059</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.18729999999999999</v>
-      </c>
-      <c r="E16" s="4">
-        <v>9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.18590000000000001</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.14990000000000001</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1.3899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.17780000000000001</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.16120000000000001</v>
-      </c>
-      <c r="E18" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.20050000000000001</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.17030000000000001</v>
-      </c>
-      <c r="E19" s="4">
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.22670000000000001</v>
-      </c>
-      <c r="C20" s="4">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.1991</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="4">
-        <v>9.1700000000000004E-2</v>
-      </c>
-      <c r="C21" s="4">
-        <v>7.0599999999999996E-2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E21" s="4">
-        <v>6.7199999999999996E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.16289999999999999</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.18160000000000001</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2.3400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.1741</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2.87E-2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.1971</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.2599999999999999E-2</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
